--- a/jpcore-r4/feature/txcache-test-build/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/txcache-test-build/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-24T02:36:43+00:00</t>
+    <t>2023-06-24T03:02:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
